--- a/project-management/risk-register.xlsx
+++ b/project-management/risk-register.xlsx
@@ -1,21 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\Dele\Dropbox\Dele\Docs\Templates\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="25725"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -29,7 +27,7 @@
     <author>DEV</author>
   </authors>
   <commentList>
-    <comment ref="J6" authorId="0" shapeId="0">
+    <comment ref="E6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -48,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
   <si>
     <t>Risk Register for Project &lt;Insert Project Name&gt;</t>
   </si>
@@ -102,15 +100,49 @@
   </si>
   <si>
     <t>Total Risk Score</t>
+  </si>
+  <si>
+    <t>Responsible</t>
+  </si>
+  <si>
+    <t>Accountable</t>
+  </si>
+  <si>
+    <t>Consulted</t>
+  </si>
+  <si>
+    <t>Informed</t>
+  </si>
+  <si>
+    <t>&lt;Initials&gt;</t>
+  </si>
+  <si>
+    <t>Project Risk Rating</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>High</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -151,6 +183,36 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FF3366FF"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF3366FF"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -172,7 +234,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -182,11 +244,11 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -195,7 +257,7 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -203,17 +265,17 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -223,7 +285,7 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -231,12 +293,12 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -245,18 +307,18 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -264,60 +326,98 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="7">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -376,7 +476,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -411,7 +511,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -588,7 +688,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -596,421 +696,562 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="G3:O36"/>
+  <dimension ref="B1:AB32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+      <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.140625" customWidth="1"/>
-    <col min="10" max="10" width="19.28515625" customWidth="1"/>
-    <col min="11" max="11" width="25.85546875" customWidth="1"/>
-    <col min="12" max="12" width="17.28515625" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" customWidth="1"/>
-    <col min="14" max="14" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.1640625" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" customWidth="1"/>
+    <col min="6" max="6" width="25.83203125" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" customWidth="1"/>
+    <col min="9" max="9" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="G3" s="2"/>
+    <row r="1" spans="2:28">
+      <c r="Z1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="2:28">
+      <c r="B3" s="2"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="4"/>
-    </row>
-    <row r="4" spans="7:15" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="G4" s="5" t="s">
+      <c r="N3" s="4"/>
+    </row>
+    <row r="4" spans="2:28" ht="28">
+      <c r="B4" s="5" t="s">
         <v>0</v>
       </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="7"/>
-    </row>
-    <row r="5" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="9"/>
+    </row>
+    <row r="5" spans="2:28">
+      <c r="B5" s="7"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
       <c r="G5" s="8"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
       <c r="N5" s="9"/>
-      <c r="O5" s="10"/>
-    </row>
-    <row r="6" spans="7:15" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="2:28" ht="18">
+      <c r="B6" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>9</v>
+      </c>
       <c r="G6" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="J6" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="K6" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="L6" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="M6" s="12" t="s">
+      <c r="H6" s="11" t="s">
         <v>13</v>
       </c>
+      <c r="I6" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M6" s="11" t="s">
+        <v>20</v>
+      </c>
       <c r="N6" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="O6" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="7:15" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G7" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="2:28" s="1" customFormat="1" ht="15">
+      <c r="B7" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="C7" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="15" t="s">
+      <c r="D7" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="J7" s="15" t="s">
+      <c r="E7" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="K7" s="15" t="s">
+      <c r="F7" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="L7" s="16" t="s">
+      <c r="G7" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="M7" s="16" t="s">
+      <c r="H7" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="N7" s="16" t="s">
+      <c r="I7" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="O7" s="17"/>
-    </row>
-    <row r="8" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="G8" s="8"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="10"/>
-    </row>
-    <row r="9" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="J7" s="20"/>
+      <c r="K7" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="L7" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="M7" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="N7" s="25" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="2:28" ht="15">
+      <c r="B8" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" s="20"/>
+      <c r="K8" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="L8" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="M8" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="N8" s="25" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="2:28">
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="8"/>
       <c r="G9" s="8"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
       <c r="N9" s="9"/>
-      <c r="O9" s="10"/>
-    </row>
-    <row r="10" spans="7:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="2:28">
+      <c r="B10" s="7"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="8"/>
       <c r="G10" s="8"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
       <c r="N10" s="9"/>
-      <c r="O10" s="10"/>
-    </row>
-    <row r="11" spans="7:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="2:28">
+      <c r="B11" s="7"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="8"/>
       <c r="G11" s="8"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
       <c r="N11" s="9"/>
-      <c r="O11" s="10"/>
-    </row>
-    <row r="12" spans="7:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="2:28">
+      <c r="B12" s="7"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="8"/>
       <c r="G12" s="8"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
       <c r="N12" s="9"/>
-      <c r="O12" s="10"/>
-    </row>
-    <row r="13" spans="7:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="2:28">
+      <c r="B13" s="7"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="8"/>
       <c r="G13" s="8"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
       <c r="N13" s="9"/>
-      <c r="O13" s="10"/>
-    </row>
-    <row r="14" spans="7:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="2:28">
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="8"/>
       <c r="G14" s="8"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
       <c r="N14" s="9"/>
-      <c r="O14" s="10"/>
-    </row>
-    <row r="15" spans="7:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="2:28">
+      <c r="B15" s="7"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="8"/>
       <c r="G15" s="8"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
       <c r="N15" s="9"/>
-      <c r="O15" s="10"/>
-    </row>
-    <row r="16" spans="7:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="2:28">
+      <c r="B16" s="7"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="8"/>
       <c r="G16" s="8"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
       <c r="N16" s="9"/>
-      <c r="O16" s="10"/>
-    </row>
-    <row r="17" spans="7:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="2:14">
+      <c r="B17" s="7"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="8"/>
       <c r="G17" s="8"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
       <c r="N17" s="9"/>
-      <c r="O17" s="10"/>
-    </row>
-    <row r="18" spans="7:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="2:14">
+      <c r="B18" s="7"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="8"/>
       <c r="G18" s="8"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
       <c r="N18" s="9"/>
-      <c r="O18" s="10"/>
-    </row>
-    <row r="19" spans="7:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="2:14">
+      <c r="B19" s="7"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="8"/>
       <c r="G19" s="8"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
       <c r="N19" s="9"/>
-      <c r="O19" s="10"/>
-    </row>
-    <row r="20" spans="7:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="2:14">
+      <c r="B20" s="7"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="8"/>
       <c r="G20" s="8"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
       <c r="N20" s="9"/>
-      <c r="O20" s="10"/>
-    </row>
-    <row r="21" spans="7:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="2:14">
+      <c r="B21" s="7"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="8"/>
       <c r="G21" s="8"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
       <c r="N21" s="9"/>
-      <c r="O21" s="10"/>
-    </row>
-    <row r="22" spans="7:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="2:14">
+      <c r="B22" s="7"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="8"/>
       <c r="G22" s="8"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
       <c r="N22" s="9"/>
-      <c r="O22" s="10"/>
-    </row>
-    <row r="23" spans="7:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="2:14">
+      <c r="B23" s="7"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="8"/>
       <c r="G23" s="8"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
       <c r="N23" s="9"/>
-      <c r="O23" s="10"/>
-    </row>
-    <row r="24" spans="7:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="2:14">
+      <c r="B24" s="7"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="8"/>
       <c r="G24" s="8"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
       <c r="N24" s="9"/>
-      <c r="O24" s="10"/>
-    </row>
-    <row r="25" spans="7:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="2:14">
+      <c r="B25" s="7"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="8"/>
       <c r="G25" s="8"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
       <c r="N25" s="9"/>
-      <c r="O25" s="10"/>
-    </row>
-    <row r="26" spans="7:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="2:14">
+      <c r="B26" s="7"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="8"/>
       <c r="G26" s="8"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
       <c r="N26" s="9"/>
-      <c r="O26" s="10"/>
-    </row>
-    <row r="27" spans="7:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="2:14">
+      <c r="B27" s="7"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="8"/>
       <c r="G27" s="8"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
       <c r="N27" s="9"/>
-      <c r="O27" s="10"/>
-    </row>
-    <row r="28" spans="7:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="2:14">
+      <c r="B28" s="7"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="8"/>
       <c r="G28" s="8"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="9"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
       <c r="N28" s="9"/>
-      <c r="O28" s="10"/>
-    </row>
-    <row r="29" spans="7:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="2:14">
+      <c r="B29" s="7"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="8"/>
       <c r="G29" s="8"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
-      <c r="M29" s="9"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
       <c r="N29" s="9"/>
-      <c r="O29" s="10"/>
-    </row>
-    <row r="30" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="G30" s="8"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="9"/>
-      <c r="M30" s="9"/>
-      <c r="N30" s="9"/>
-      <c r="O30" s="10"/>
-    </row>
-    <row r="31" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="G31" s="8"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="9"/>
-      <c r="M31" s="9"/>
-      <c r="N31" s="9"/>
-      <c r="O31" s="10"/>
-    </row>
-    <row r="32" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="G32" s="8"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
-      <c r="M32" s="9"/>
-      <c r="N32" s="9"/>
-      <c r="O32" s="10"/>
-    </row>
-    <row r="33" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="G33" s="8"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9"/>
-      <c r="L33" s="9"/>
-      <c r="M33" s="9"/>
-      <c r="N33" s="9"/>
-      <c r="O33" s="10"/>
-    </row>
-    <row r="34" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="G34" s="18"/>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="19"/>
-      <c r="K34" s="19"/>
-      <c r="L34" s="19"/>
-      <c r="M34" s="19"/>
-      <c r="N34" s="19"/>
-      <c r="O34" s="20"/>
-    </row>
-    <row r="36" spans="7:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="L36" s="22" t="s">
+    </row>
+    <row r="30" spans="2:14">
+      <c r="B30" s="13"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="15"/>
+    </row>
+    <row r="32" spans="2:14" ht="19" thickBot="1">
+      <c r="G32" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="M36" s="23"/>
-      <c r="N36" s="21"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="16"/>
+      <c r="K32" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="L32" s="17"/>
+      <c r="M32" s="26" t="s">
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M32">
+      <formula1>$Z$1:$AB$1</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>